--- a/파이썬/코딩교실 매크로/1.코딩교실준비/3.전산반배정/2.LMS전산반배정/LMS전산반배정.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/3.전산반배정/2.LMS전산반배정/LMS전산반배정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\3.전산반배정\2.LMS전산반배정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\3.전산반배정\2.LMS전산반배정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62523A4-CD87-45B0-B52E-852EB6B36B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8916DFDA-602F-47D9-A762-FACF5E5F1495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45645" yWindow="1845" windowWidth="28305" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3331,32 +3331,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="6" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.59765625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" style="2" customWidth="1"/>
     <col min="14" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.8984375" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" thickBot="1">
+    <row r="1" spans="1:17" ht="18" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" thickTop="1" thickBot="1">
+    <row r="2" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>383</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" thickTop="1" thickBot="1">
+    <row r="3" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>383</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" thickTop="1" thickBot="1">
+    <row r="4" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>383</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" thickTop="1" thickBot="1">
+    <row r="5" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>383</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>202506</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" thickTop="1" thickBot="1">
+    <row r="6" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>383</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" thickTop="1" thickBot="1">
+    <row r="7" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A7" s="17" t="s">
         <v>384</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1">
+    <row r="8" spans="1:17" ht="18" thickBot="1">
       <c r="A8" s="17" t="s">
         <v>384</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17.25" thickBot="1">
+    <row r="9" spans="1:17" ht="18" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>384</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17.25" thickBot="1">
+    <row r="10" spans="1:17" ht="18" thickBot="1">
       <c r="A10" s="17" t="s">
         <v>384</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1">
+    <row r="11" spans="1:17" ht="18" thickBot="1">
       <c r="A11" s="17" t="s">
         <v>384</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18" thickTop="1" thickBot="1">
+    <row r="12" spans="1:17" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>385</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1">
+    <row r="13" spans="1:17" ht="18" thickBot="1">
       <c r="A13" s="17" t="s">
         <v>385</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1">
+    <row r="14" spans="1:17" ht="18" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>385</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17.25" thickBot="1">
+    <row r="15" spans="1:17" ht="18" thickBot="1">
       <c r="A15" s="17" t="s">
         <v>385</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="17.25" thickBot="1">
+    <row r="16" spans="1:17" ht="18" thickBot="1">
       <c r="A16" s="17" t="s">
         <v>385</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="17" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A17" s="17" t="s">
         <v>386</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" thickBot="1">
+    <row r="18" spans="1:13" ht="18" thickBot="1">
       <c r="A18" s="17" t="s">
         <v>386</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.25" thickBot="1">
+    <row r="19" spans="1:13" ht="18" thickBot="1">
       <c r="A19" s="17" t="s">
         <v>386</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.25" thickBot="1">
+    <row r="20" spans="1:13" ht="18" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>386</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" thickBot="1">
+    <row r="21" spans="1:13" ht="18" thickBot="1">
       <c r="A21" s="17" t="s">
         <v>386</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17.25" thickBot="1">
+    <row r="22" spans="1:13" ht="18" thickBot="1">
       <c r="A22" s="17" t="s">
         <v>386</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="23" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A23" s="17" t="s">
         <v>387</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.25" thickBot="1">
+    <row r="24" spans="1:13" ht="18" thickBot="1">
       <c r="A24" s="17" t="s">
         <v>387</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.25" thickBot="1">
+    <row r="25" spans="1:13" ht="18" thickBot="1">
       <c r="A25" s="17" t="s">
         <v>387</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.25" thickBot="1">
+    <row r="26" spans="1:13" ht="18" thickBot="1">
       <c r="A26" s="17" t="s">
         <v>387</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.25" thickBot="1">
+    <row r="27" spans="1:13" ht="18" thickBot="1">
       <c r="A27" s="17" t="s">
         <v>387</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.25" thickBot="1">
+    <row r="28" spans="1:13" ht="18" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>387</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A29" s="17" t="s">
         <v>622</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.25" thickBot="1">
+    <row r="30" spans="1:13" ht="18" thickBot="1">
       <c r="A30" s="17" t="s">
         <v>622</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.25" thickBot="1">
+    <row r="31" spans="1:13" ht="18" thickBot="1">
       <c r="A31" s="17" t="s">
         <v>622</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.25" thickBot="1">
+    <row r="32" spans="1:13" ht="18" thickBot="1">
       <c r="A32" s="17" t="s">
         <v>622</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17.25" thickBot="1">
+    <row r="33" spans="1:13" ht="18" thickBot="1">
       <c r="A33" s="17" t="s">
         <v>622</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17.25" thickBot="1">
+    <row r="34" spans="1:13" ht="18" thickBot="1">
       <c r="A34" s="17" t="s">
         <v>622</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="35" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>623</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="17.25" thickBot="1">
+    <row r="36" spans="1:13" ht="18" thickBot="1">
       <c r="A36" s="17" t="s">
         <v>623</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="17.25" thickBot="1">
+    <row r="37" spans="1:13" ht="18" thickBot="1">
       <c r="A37" s="17" t="s">
         <v>623</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="17.25" thickBot="1">
+    <row r="38" spans="1:13" ht="18" thickBot="1">
       <c r="A38" s="17" t="s">
         <v>623</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17.25" thickBot="1">
+    <row r="39" spans="1:13" ht="18" thickBot="1">
       <c r="A39" s="17" t="s">
         <v>623</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17.25" thickBot="1">
+    <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="17" t="s">
         <v>623</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="41" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A41" s="17" t="s">
         <v>624</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="17.25" thickBot="1">
+    <row r="42" spans="1:13" ht="18" thickBot="1">
       <c r="A42" s="17" t="s">
         <v>624</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="17.25" thickBot="1">
+    <row r="43" spans="1:13" ht="18" thickBot="1">
       <c r="A43" s="17" t="s">
         <v>624</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="17.25" thickBot="1">
+    <row r="44" spans="1:13" ht="18" thickBot="1">
       <c r="A44" s="17" t="s">
         <v>624</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.25" thickBot="1">
+    <row r="45" spans="1:13" ht="18" thickBot="1">
       <c r="A45" s="17" t="s">
         <v>624</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17.25" thickBot="1">
+    <row r="46" spans="1:13" ht="18" thickBot="1">
       <c r="A46" s="17" t="s">
         <v>624</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="47" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A47" s="17" t="s">
         <v>625</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17.25" thickBot="1">
+    <row r="48" spans="1:13" ht="18" thickBot="1">
       <c r="A48" s="17" t="s">
         <v>625</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17.25" thickBot="1">
+    <row r="49" spans="1:13" ht="18" thickBot="1">
       <c r="A49" s="17" t="s">
         <v>625</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="17.25" thickBot="1">
+    <row r="50" spans="1:13" ht="18" thickBot="1">
       <c r="A50" s="17" t="s">
         <v>625</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="17.25" thickBot="1">
+    <row r="51" spans="1:13" ht="18" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>625</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="17.25" thickBot="1">
+    <row r="52" spans="1:13" ht="18" thickBot="1">
       <c r="A52" s="17" t="s">
         <v>625</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="17.25" thickBot="1">
+    <row r="53" spans="1:13" ht="18" thickBot="1">
       <c r="A53" s="17" t="s">
         <v>625</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="54" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A54" s="17" t="s">
         <v>626</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="17.25" thickBot="1">
+    <row r="55" spans="1:13" ht="18" thickBot="1">
       <c r="A55" s="17" t="s">
         <v>626</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="17.25" thickBot="1">
+    <row r="56" spans="1:13" ht="18" thickBot="1">
       <c r="A56" s="17" t="s">
         <v>626</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="17.25" thickBot="1">
+    <row r="57" spans="1:13" ht="18" thickBot="1">
       <c r="A57" s="17" t="s">
         <v>626</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17.25" thickBot="1">
+    <row r="58" spans="1:13" ht="18" thickBot="1">
       <c r="A58" s="17" t="s">
         <v>626</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17.25" thickBot="1">
+    <row r="59" spans="1:13" ht="18" thickBot="1">
       <c r="A59" s="17" t="s">
         <v>626</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="17.25" thickBot="1">
+    <row r="60" spans="1:13" ht="18" thickBot="1">
       <c r="A60" s="17" t="s">
         <v>626</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="61" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A61" s="17" t="s">
         <v>627</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="17.25" thickBot="1">
+    <row r="62" spans="1:13" ht="18" thickBot="1">
       <c r="A62" s="17" t="s">
         <v>627</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17.25" thickBot="1">
+    <row r="63" spans="1:13" ht="18" thickBot="1">
       <c r="A63" s="17" t="s">
         <v>627</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="17.25" thickBot="1">
+    <row r="64" spans="1:13" ht="18" thickBot="1">
       <c r="A64" s="17" t="s">
         <v>627</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17.25" thickBot="1">
+    <row r="65" spans="1:13" ht="18" thickBot="1">
       <c r="A65" s="17" t="s">
         <v>627</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="17.25" thickBot="1">
+    <row r="66" spans="1:13" ht="18" thickBot="1">
       <c r="A66" s="17" t="s">
         <v>627</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="67" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A67" s="17" t="s">
         <v>628</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="17.25" thickBot="1">
+    <row r="68" spans="1:13" ht="18" thickBot="1">
       <c r="A68" s="17" t="s">
         <v>628</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17.25" thickBot="1">
+    <row r="69" spans="1:13" ht="18" thickBot="1">
       <c r="A69" s="17" t="s">
         <v>628</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="17.25" thickBot="1">
+    <row r="70" spans="1:13" ht="18" thickBot="1">
       <c r="A70" s="17" t="s">
         <v>628</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="17.25" thickBot="1">
+    <row r="71" spans="1:13" ht="18" thickBot="1">
       <c r="A71" s="17" t="s">
         <v>628</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="72" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A72" s="17" t="s">
         <v>629</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="17.25" thickBot="1">
+    <row r="73" spans="1:13" ht="18" thickBot="1">
       <c r="A73" s="17" t="s">
         <v>629</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="17.25" thickBot="1">
+    <row r="74" spans="1:13" ht="18" thickBot="1">
       <c r="A74" s="17" t="s">
         <v>629</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17.25" thickBot="1">
+    <row r="75" spans="1:13" ht="18" thickBot="1">
       <c r="A75" s="17" t="s">
         <v>629</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="17.25" thickBot="1">
+    <row r="76" spans="1:13" ht="18" thickBot="1">
       <c r="A76" s="17" t="s">
         <v>629</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="17.25" thickBot="1">
+    <row r="77" spans="1:13" ht="18" thickBot="1">
       <c r="A77" s="17" t="s">
         <v>629</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="78" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A78" s="17" t="s">
         <v>630</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="17.25" thickBot="1">
+    <row r="79" spans="1:13" ht="18" thickBot="1">
       <c r="A79" s="17" t="s">
         <v>630</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="17.25" thickBot="1">
+    <row r="80" spans="1:13" ht="18" thickBot="1">
       <c r="A80" s="17" t="s">
         <v>630</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="17.25" thickBot="1">
+    <row r="81" spans="1:13" ht="18" thickBot="1">
       <c r="A81" s="17" t="s">
         <v>630</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="17.25" thickBot="1">
+    <row r="82" spans="1:13" ht="18" thickBot="1">
       <c r="A82" s="17" t="s">
         <v>630</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="17.25" thickBot="1">
+    <row r="83" spans="1:13" ht="18" thickBot="1">
       <c r="A83" s="17" t="s">
         <v>630</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="84" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A84" s="17" t="s">
         <v>631</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="17.25" thickBot="1">
+    <row r="85" spans="1:13" ht="18" thickBot="1">
       <c r="A85" s="17" t="s">
         <v>631</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="17.25" thickBot="1">
+    <row r="86" spans="1:13" ht="18" thickBot="1">
       <c r="A86" s="17" t="s">
         <v>631</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="17.25" thickBot="1">
+    <row r="87" spans="1:13" ht="18" thickBot="1">
       <c r="A87" s="17" t="s">
         <v>631</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="17.25" thickBot="1">
+    <row r="88" spans="1:13" ht="18" thickBot="1">
       <c r="A88" s="17" t="s">
         <v>631</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="17.25" thickBot="1">
+    <row r="89" spans="1:13" ht="18" thickBot="1">
       <c r="A89" s="17" t="s">
         <v>631</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="90" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A90" s="17" t="s">
         <v>632</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="17.25" thickBot="1">
+    <row r="91" spans="1:13" ht="18" thickBot="1">
       <c r="A91" s="17" t="s">
         <v>632</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="17.25" thickBot="1">
+    <row r="92" spans="1:13" ht="18" thickBot="1">
       <c r="A92" s="17" t="s">
         <v>632</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="17.25" thickBot="1">
+    <row r="93" spans="1:13" ht="18" thickBot="1">
       <c r="A93" s="17" t="s">
         <v>632</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="17.25" thickBot="1">
+    <row r="94" spans="1:13" ht="18" thickBot="1">
       <c r="A94" s="17" t="s">
         <v>632</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="17.25" thickBot="1">
+    <row r="95" spans="1:13" ht="18" thickBot="1">
       <c r="A95" s="17" t="s">
         <v>632</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="96" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A96" s="17" t="s">
         <v>633</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="17.25" thickBot="1">
+    <row r="97" spans="1:13" ht="18" thickBot="1">
       <c r="A97" s="17" t="s">
         <v>633</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="17.25" thickBot="1">
+    <row r="98" spans="1:13" ht="18" thickBot="1">
       <c r="A98" s="17" t="s">
         <v>633</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="17.25" thickBot="1">
+    <row r="99" spans="1:13" ht="18" thickBot="1">
       <c r="A99" s="17" t="s">
         <v>633</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="17.25" thickBot="1">
+    <row r="100" spans="1:13" ht="18" thickBot="1">
       <c r="A100" s="17" t="s">
         <v>633</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="101" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A101" s="17" t="s">
         <v>634</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="17.25" thickBot="1">
+    <row r="102" spans="1:13" ht="18" thickBot="1">
       <c r="A102" s="17" t="s">
         <v>634</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="17.25" thickBot="1">
+    <row r="103" spans="1:13" ht="18" thickBot="1">
       <c r="A103" s="17" t="s">
         <v>634</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="17.25" thickBot="1">
+    <row r="104" spans="1:13" ht="18" thickBot="1">
       <c r="A104" s="17" t="s">
         <v>634</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="17.25" thickBot="1">
+    <row r="105" spans="1:13" ht="18" thickBot="1">
       <c r="A105" s="17" t="s">
         <v>634</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="106" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A106" s="17" t="s">
         <v>401</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="17.25" thickBot="1">
+    <row r="107" spans="1:13" ht="18" thickBot="1">
       <c r="A107" s="17" t="s">
         <v>401</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="17.25" thickBot="1">
+    <row r="108" spans="1:13" ht="18" thickBot="1">
       <c r="A108" s="17" t="s">
         <v>401</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="17.25" thickBot="1">
+    <row r="109" spans="1:13" ht="18" thickBot="1">
       <c r="A109" s="17" t="s">
         <v>401</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="17.25" thickBot="1">
+    <row r="110" spans="1:13" ht="18" thickBot="1">
       <c r="A110" s="17" t="s">
         <v>401</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="111" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A111" s="17" t="s">
         <v>852</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="17.25" thickBot="1">
+    <row r="112" spans="1:13" ht="18" thickBot="1">
       <c r="A112" s="17" t="s">
         <v>852</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="17.25" thickBot="1">
+    <row r="113" spans="1:13" ht="18" thickBot="1">
       <c r="A113" s="17" t="s">
         <v>852</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="17.25" thickBot="1">
+    <row r="114" spans="1:13" ht="18" thickBot="1">
       <c r="A114" s="17" t="s">
         <v>852</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="17.25" thickBot="1">
+    <row r="115" spans="1:13" ht="18" thickBot="1">
       <c r="A115" s="17" t="s">
         <v>852</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="17.25" thickBot="1">
+    <row r="116" spans="1:13" ht="18" thickBot="1">
       <c r="A116" s="17" t="s">
         <v>852</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="117" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A117" s="17" t="s">
         <v>853</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="17.25" thickBot="1">
+    <row r="118" spans="1:13" ht="18" thickBot="1">
       <c r="A118" s="17" t="s">
         <v>853</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="17.25" thickBot="1">
+    <row r="119" spans="1:13" ht="18" thickBot="1">
       <c r="A119" s="17" t="s">
         <v>853</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="17.25" thickBot="1">
+    <row r="120" spans="1:13" ht="18" thickBot="1">
       <c r="A120" s="17" t="s">
         <v>853</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="17.25" thickBot="1">
+    <row r="121" spans="1:13" ht="18" thickBot="1">
       <c r="A121" s="17" t="s">
         <v>853</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="122" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A122" s="17" t="s">
         <v>854</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="17.25" thickBot="1">
+    <row r="123" spans="1:13" ht="18" thickBot="1">
       <c r="A123" s="17" t="s">
         <v>854</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="17.25" thickBot="1">
+    <row r="124" spans="1:13" ht="18" thickBot="1">
       <c r="A124" s="17" t="s">
         <v>854</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="17.25" thickBot="1">
+    <row r="125" spans="1:13" ht="18" thickBot="1">
       <c r="A125" s="17" t="s">
         <v>854</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="17.25" thickBot="1">
+    <row r="126" spans="1:13" ht="18" thickBot="1">
       <c r="A126" s="17" t="s">
         <v>854</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="17.25" thickBot="1">
+    <row r="127" spans="1:13" ht="18" thickBot="1">
       <c r="A127" s="17" t="s">
         <v>854</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="128" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A128" s="17" t="s">
         <v>855</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="17.25" thickBot="1">
+    <row r="129" spans="1:13" ht="18" thickBot="1">
       <c r="A129" s="17" t="s">
         <v>855</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="17.25" thickBot="1">
+    <row r="130" spans="1:13" ht="18" thickBot="1">
       <c r="A130" s="17" t="s">
         <v>855</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="17.25" thickBot="1">
+    <row r="131" spans="1:13" ht="18" thickBot="1">
       <c r="A131" s="17" t="s">
         <v>855</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="17.25" thickBot="1">
+    <row r="132" spans="1:13" ht="18" thickBot="1">
       <c r="A132" s="17" t="s">
         <v>855</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="17.25" thickBot="1">
+    <row r="133" spans="1:13" ht="18" thickBot="1">
       <c r="A133" s="17" t="s">
         <v>855</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="134" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A134" s="17" t="s">
         <v>856</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="17.25" thickBot="1">
+    <row r="135" spans="1:13" ht="18" thickBot="1">
       <c r="A135" s="17" t="s">
         <v>856</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="17.25" thickBot="1">
+    <row r="136" spans="1:13" ht="18" thickBot="1">
       <c r="A136" s="17" t="s">
         <v>856</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="17.25" thickBot="1">
+    <row r="137" spans="1:13" ht="18" thickBot="1">
       <c r="A137" s="17" t="s">
         <v>856</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="17.25" thickBot="1">
+    <row r="138" spans="1:13" ht="18" thickBot="1">
       <c r="A138" s="17" t="s">
         <v>856</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="17.25" thickBot="1">
+    <row r="139" spans="1:13" ht="18" thickBot="1">
       <c r="A139" s="17" t="s">
         <v>856</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="140" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A140" s="17" t="s">
         <v>857</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="17.25" thickBot="1">
+    <row r="141" spans="1:13" ht="18" thickBot="1">
       <c r="A141" s="17" t="s">
         <v>857</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="17.25" thickBot="1">
+    <row r="142" spans="1:13" ht="18" thickBot="1">
       <c r="A142" s="17" t="s">
         <v>857</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="17.25" thickBot="1">
+    <row r="143" spans="1:13" ht="18" thickBot="1">
       <c r="A143" s="17" t="s">
         <v>857</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="17.25" thickBot="1">
+    <row r="144" spans="1:13" ht="18" thickBot="1">
       <c r="A144" s="17" t="s">
         <v>857</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="17.25" thickBot="1">
+    <row r="145" spans="1:13" ht="18" thickBot="1">
       <c r="A145" s="17" t="s">
         <v>857</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="146" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A146" s="17" t="s">
         <v>858</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="17.25" thickBot="1">
+    <row r="147" spans="1:13" ht="18" thickBot="1">
       <c r="A147" s="17" t="s">
         <v>858</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="17.25" thickBot="1">
+    <row r="148" spans="1:13" ht="18" thickBot="1">
       <c r="A148" s="17" t="s">
         <v>858</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="17.25" thickBot="1">
+    <row r="149" spans="1:13" ht="18" thickBot="1">
       <c r="A149" s="17" t="s">
         <v>858</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="17.25" thickBot="1">
+    <row r="150" spans="1:13" ht="18" thickBot="1">
       <c r="A150" s="17" t="s">
         <v>858</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="17.25" thickBot="1">
+    <row r="151" spans="1:13" ht="18" thickBot="1">
       <c r="A151" s="17" t="s">
         <v>858</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="152" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A152" s="17" t="s">
         <v>859</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="17.25" thickBot="1">
+    <row r="153" spans="1:13" ht="18" thickBot="1">
       <c r="A153" s="17" t="s">
         <v>859</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="17.25" thickBot="1">
+    <row r="154" spans="1:13" ht="18" thickBot="1">
       <c r="A154" s="17" t="s">
         <v>859</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="17.25" thickBot="1">
+    <row r="155" spans="1:13" ht="18" thickBot="1">
       <c r="A155" s="17" t="s">
         <v>859</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="17.25" thickBot="1">
+    <row r="156" spans="1:13" ht="18" thickBot="1">
       <c r="A156" s="17" t="s">
         <v>859</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="17.25" thickBot="1">
+    <row r="157" spans="1:13" ht="18" thickBot="1">
       <c r="A157" s="17" t="s">
         <v>859</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="17.25" thickBot="1">
+    <row r="158" spans="1:13" ht="18" thickBot="1">
       <c r="A158" s="17" t="s">
         <v>859</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="159" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A159" s="17" t="s">
         <v>860</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="17.25" thickBot="1">
+    <row r="160" spans="1:13" ht="18" thickBot="1">
       <c r="A160" s="17" t="s">
         <v>860</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="17.25" thickBot="1">
+    <row r="161" spans="1:13" ht="18" thickBot="1">
       <c r="A161" s="17" t="s">
         <v>860</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="17.25" thickBot="1">
+    <row r="162" spans="1:13" ht="18" thickBot="1">
       <c r="A162" s="17" t="s">
         <v>860</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="17.25" thickBot="1">
+    <row r="163" spans="1:13" ht="18" thickBot="1">
       <c r="A163" s="17" t="s">
         <v>860</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="17.25" thickBot="1">
+    <row r="164" spans="1:13" ht="18" thickBot="1">
       <c r="A164" s="17" t="s">
         <v>860</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="17.25" thickBot="1">
+    <row r="165" spans="1:13" ht="18" thickBot="1">
       <c r="A165" s="17" t="s">
         <v>860</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="166" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A166" s="17" t="s">
         <v>861</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="17.25" thickBot="1">
+    <row r="167" spans="1:13" ht="18" thickBot="1">
       <c r="A167" s="17" t="s">
         <v>861</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="17.25" thickBot="1">
+    <row r="168" spans="1:13" ht="18" thickBot="1">
       <c r="A168" s="17" t="s">
         <v>861</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="17.25" thickBot="1">
+    <row r="169" spans="1:13" ht="18" thickBot="1">
       <c r="A169" s="17" t="s">
         <v>861</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="17.25" thickBot="1">
+    <row r="170" spans="1:13" ht="18" thickBot="1">
       <c r="A170" s="17" t="s">
         <v>861</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="17.25" thickBot="1">
+    <row r="171" spans="1:13" ht="18" thickBot="1">
       <c r="A171" s="17" t="s">
         <v>861</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="17.25" thickBot="1">
+    <row r="172" spans="1:13" ht="18" thickBot="1">
       <c r="A172" s="17" t="s">
         <v>861</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="173" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A173" s="17" t="s">
         <v>862</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="17.25" thickBot="1">
+    <row r="174" spans="1:13" ht="18" thickBot="1">
       <c r="A174" s="17" t="s">
         <v>862</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="17.25" thickBot="1">
+    <row r="175" spans="1:13" ht="18" thickBot="1">
       <c r="A175" s="17" t="s">
         <v>862</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="17.25" thickBot="1">
+    <row r="176" spans="1:13" ht="18" thickBot="1">
       <c r="A176" s="17" t="s">
         <v>862</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="17.25" thickBot="1">
+    <row r="177" spans="1:13" ht="18" thickBot="1">
       <c r="A177" s="17" t="s">
         <v>862</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="17.25" thickBot="1">
+    <row r="178" spans="1:13" ht="18" thickBot="1">
       <c r="A178" s="17" t="s">
         <v>862</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="17.25" thickBot="1">
+    <row r="179" spans="1:13" ht="18" thickBot="1">
       <c r="A179" s="17" t="s">
         <v>862</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="180" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A180" s="17" t="s">
         <v>863</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="17.25" thickBot="1">
+    <row r="181" spans="1:13" ht="18" thickBot="1">
       <c r="A181" s="17" t="s">
         <v>863</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="17.25" thickBot="1">
+    <row r="182" spans="1:13" ht="18" thickBot="1">
       <c r="A182" s="17" t="s">
         <v>863</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="17.25" thickBot="1">
+    <row r="183" spans="1:13" ht="18" thickBot="1">
       <c r="A183" s="17" t="s">
         <v>863</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="17.25" thickBot="1">
+    <row r="184" spans="1:13" ht="18" thickBot="1">
       <c r="A184" s="17" t="s">
         <v>863</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="17.25" thickBot="1">
+    <row r="185" spans="1:13" ht="18" thickBot="1">
       <c r="A185" s="17" t="s">
         <v>863</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="17.25" thickBot="1">
+    <row r="186" spans="1:13" ht="18" thickBot="1">
       <c r="A186" s="17" t="s">
         <v>863</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="18" thickTop="1" thickBot="1">
+    <row r="187" spans="1:13" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A187" s="17" t="s">
         <v>864</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="17.25" thickBot="1">
+    <row r="188" spans="1:13" ht="18" thickBot="1">
       <c r="A188" s="17" t="s">
         <v>864</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="17.25" thickBot="1">
+    <row r="189" spans="1:13" ht="18" thickBot="1">
       <c r="A189" s="17" t="s">
         <v>864</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="17.25" thickBot="1">
+    <row r="190" spans="1:13" ht="18" thickBot="1">
       <c r="A190" s="17" t="s">
         <v>864</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="17.25" thickBot="1">
+    <row r="191" spans="1:13" ht="18" thickBot="1">
       <c r="A191" s="17" t="s">
         <v>864</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="17.25" thickBot="1">
+    <row r="192" spans="1:13" ht="18" thickBot="1">
       <c r="A192" s="17" t="s">
         <v>864</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="17.25" thickBot="1">
+    <row r="193" spans="1:3" ht="18" thickBot="1">
       <c r="A193" s="17" t="s">
         <v>864</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="194" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A194" s="17" t="s">
         <v>866</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="17.25" thickBot="1">
+    <row r="195" spans="1:3" ht="18" thickBot="1">
       <c r="A195" s="17" t="s">
         <v>866</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="17.25" thickBot="1">
+    <row r="196" spans="1:3" ht="18" thickBot="1">
       <c r="A196" s="17" t="s">
         <v>866</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="17.25" thickBot="1">
+    <row r="197" spans="1:3" ht="18" thickBot="1">
       <c r="A197" s="17" t="s">
         <v>866</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="17.25" thickBot="1">
+    <row r="198" spans="1:3" ht="18" thickBot="1">
       <c r="A198" s="17" t="s">
         <v>866</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="17.25" thickBot="1">
+    <row r="199" spans="1:3" ht="18" thickBot="1">
       <c r="A199" s="17" t="s">
         <v>866</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="200" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A200" s="17" t="s">
         <v>865</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="17.25" thickBot="1">
+    <row r="201" spans="1:3" ht="18" thickBot="1">
       <c r="A201" s="17" t="s">
         <v>865</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="17.25" thickBot="1">
+    <row r="202" spans="1:3" ht="18" thickBot="1">
       <c r="A202" s="17" t="s">
         <v>865</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="17.25" thickBot="1">
+    <row r="203" spans="1:3" ht="18" thickBot="1">
       <c r="A203" s="17" t="s">
         <v>865</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="17.25" thickBot="1">
+    <row r="204" spans="1:3" ht="18" thickBot="1">
       <c r="A204" s="17" t="s">
         <v>865</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="17.25" thickBot="1">
+    <row r="205" spans="1:3" ht="18" thickBot="1">
       <c r="A205" s="17" t="s">
         <v>865</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="206" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A206" s="17" t="s">
         <v>867</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="17.25" thickBot="1">
+    <row r="207" spans="1:3" ht="18" thickBot="1">
       <c r="A207" s="17" t="s">
         <v>867</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="17.25" thickBot="1">
+    <row r="208" spans="1:3" ht="18" thickBot="1">
       <c r="A208" s="17" t="s">
         <v>867</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="17.25" thickBot="1">
+    <row r="209" spans="1:3" ht="18" thickBot="1">
       <c r="A209" s="17" t="s">
         <v>867</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="17.25" thickBot="1">
+    <row r="210" spans="1:3" ht="18" thickBot="1">
       <c r="A210" s="17" t="s">
         <v>867</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="17.25" thickBot="1">
+    <row r="211" spans="1:3" ht="18" thickBot="1">
       <c r="A211" s="17" t="s">
         <v>867</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="212" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1">
       <c r="A212" s="17" t="s">
         <v>868</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="17.25" thickBot="1">
+    <row r="213" spans="1:3" ht="18" thickBot="1">
       <c r="A213" s="17" t="s">
         <v>868</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="17.25" thickBot="1">
+    <row r="214" spans="1:3" ht="18" thickBot="1">
       <c r="A214" s="17" t="s">
         <v>868</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="17.25" thickBot="1">
+    <row r="215" spans="1:3" ht="18" thickBot="1">
       <c r="A215" s="17" t="s">
         <v>868</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="17.25" thickBot="1">
+    <row r="216" spans="1:3" ht="18" thickBot="1">
       <c r="A216" s="17" t="s">
         <v>868</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="17.25" thickBot="1">
+    <row r="217" spans="1:3" ht="18" thickBot="1">
       <c r="A217" s="17" t="s">
         <v>868</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="17.25" thickTop="1"/>
+    <row r="218" spans="1:3" ht="18" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
